--- a/xlsx/CaVaTeCo/form_s_OCC_concluido.xlsx
+++ b/xlsx/CaVaTeCo/form_s_OCC_concluido.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_blue_future\xlsx\CaVaTeCo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Terra_Share\projects\CaVaTeCo_Collect\projects\A_CaVaTeCo_projects\odk_forms_wcs_nampula\xlsx\CaVaTeCo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ADFBADE-FC27-4424-B01C-50AC3FDBACAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D596DA30-AFF0-4BE0-901B-B42E5776C76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1150" uniqueCount="245">
   <si>
     <t>type</t>
   </si>
@@ -405,9 +405,6 @@
     <t>searchtext</t>
   </si>
   <si>
-    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registadas:</t>
-  </si>
-  <si>
     <t>select_one enum_name_id</t>
   </si>
   <si>
@@ -426,16 +423,10 @@
     <t>Form S - OCC Concluido</t>
   </si>
   <si>
-    <t>form_s_fim_occ</t>
-  </si>
-  <si>
     <t>concat('occ_fim','_',${assoc_name},'_',${date})</t>
   </si>
   <si>
     <t>"Formulário S - Fim de OCC"</t>
-  </si>
-  <si>
-    <t>Data da conclusao do OCC:</t>
   </si>
   <si>
     <t>begin repeat</t>
@@ -620,9 +611,6 @@
     <t>g5</t>
   </si>
   <si>
-    <t>Detalhes de documentos</t>
-  </si>
-  <si>
     <t>select_one_external documents</t>
   </si>
   <si>
@@ -635,15 +623,9 @@
     <t>id_number</t>
   </si>
   <si>
-    <t>Numero de documento</t>
-  </si>
-  <si>
     <t>regex(., "^[a-zA-Z0-9. _-]{1,25}$")</t>
   </si>
   <si>
-    <t>Resposta invalida - Os campos de numero ou local de emissão do documento não podia incluir um novo paragrafo. Faça a favor de eliminar qualquer linha adicional.</t>
-  </si>
-  <si>
     <t>id_place_issued</t>
   </si>
   <si>
@@ -674,21 +656,12 @@
     <t>photo</t>
   </si>
   <si>
-    <t>Tire uma fotografia de assinante</t>
-  </si>
-  <si>
     <t>id_image_front</t>
   </si>
   <si>
-    <t>Tire uma fotografia da frente do documento da identificação</t>
-  </si>
-  <si>
     <t>id_image_back</t>
   </si>
   <si>
-    <t>Tire uma fotografia do verso do documento da identificação</t>
-  </si>
-  <si>
     <t>signatory_role</t>
   </si>
   <si>
@@ -696,9 +669,6 @@
   </si>
   <si>
     <t>contact</t>
-  </si>
-  <si>
-    <t>Numero de telemóvel</t>
   </si>
   <si>
     <t>regex(.,'[0-9]{9}')</t>
@@ -752,9 +722,6 @@
     <t>. &lt;= today()</t>
   </si>
   <si>
-    <t>"WCS - Futura Azul"</t>
-  </si>
-  <si>
     <t>search('enum_names_wcs_nampula', 'startswith', 'enumerator_name', ${searchtext})</t>
   </si>
   <si>
@@ -767,19 +734,65 @@
     <t>pulldata('assoc_names_wcs_nampula', 'assoc_name',  'assoc_id_key', ${assoc_id})</t>
   </si>
   <si>
-    <t>http://cavateco.terrafirma.co.mz:8080/wcs_nampula/submission</t>
-  </si>
-  <si>
     <t>terrafirma_wcs.jpg</t>
+  </si>
+  <si>
+    <t>fim_occ</t>
+  </si>
+  <si>
+    <t>Digite a primeira letra do seu nome para filtrar a lista de enumeradores já registados:</t>
+  </si>
+  <si>
+    <t>Data da conclusão do OCC:</t>
+  </si>
+  <si>
+    <t>Detalhes dos documentos</t>
+  </si>
+  <si>
+    <t>Número do documento</t>
+  </si>
+  <si>
+    <t>Tire uma fotografia do assinante</t>
+  </si>
+  <si>
+    <t>Tire uma fotografia da frente do documento de identificação</t>
+  </si>
+  <si>
+    <t>Tire uma fotografia do verso do documento de identificação</t>
+  </si>
+  <si>
+    <t>Número de telemóvel</t>
+  </si>
+  <si>
+    <t>Resposta inválida - Os campos de número ou local de emissão do documento não devem incluir um novo paragrafo. Faça o favor de eliminar qualquer linha adicional.</t>
+  </si>
+  <si>
+    <t>"WCS - Futuro Azul"</t>
+  </si>
+  <si>
+    <t>consent_chuabo.mp3</t>
+  </si>
+  <si>
+    <t>consent_cisena.mp3</t>
+  </si>
+  <si>
+    <t>consent_ciyao.mp3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1024,412 +1037,418 @@
   </borders>
   <cellStyleXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="239"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="239" applyFill="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="233" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="236" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="235" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="235" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="239"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="239" applyFill="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="239" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="233" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="236" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="236" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="238" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="238" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="239" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="239" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" indent="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="240">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2015,31 +2034,31 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.19921875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="20.19921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="79.59765625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="29.25" style="8" customWidth="1"/>
+    <col min="2" max="2" width="20.25" style="9" customWidth="1"/>
+    <col min="3" max="3" width="79.625" style="8" customWidth="1"/>
     <col min="4" max="4" width="27" style="8" customWidth="1"/>
-    <col min="5" max="5" width="14.09765625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.8984375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="17.8984375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.59765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.3984375" style="8" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.59765625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="17.875" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.625" style="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" style="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="49" style="8" customWidth="1"/>
     <col min="13" max="13" width="20.5" style="8" customWidth="1"/>
-    <col min="14" max="14" width="23.19921875" style="8" customWidth="1"/>
-    <col min="15" max="15" width="17.09765625" style="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="20.19921875" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.25" style="8" customWidth="1"/>
+    <col min="15" max="15" width="17.125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="8" bestFit="1" customWidth="1"/>
     <col min="17" max="16384" width="11" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="50" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="50" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2089,7 +2108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>16</v>
       </c>
@@ -2097,7 +2116,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>107</v>
       </c>
@@ -2108,7 +2127,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>26</v>
       </c>
@@ -2119,7 +2138,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:16" s="28" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" s="28" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>26</v>
       </c>
@@ -2127,10 +2146,10 @@
         <v>110</v>
       </c>
       <c r="N5" s="57" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>26</v>
       </c>
@@ -2138,10 +2157,10 @@
         <v>29</v>
       </c>
       <c r="N6" s="61" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -2153,7 +2172,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>24</v>
       </c>
@@ -2161,10 +2180,10 @@
         <v>113</v>
       </c>
       <c r="O8" s="58" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>24</v>
       </c>
@@ -2175,24 +2194,24 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="44"/>
     </row>
-    <row r="11" spans="1:16" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" s="28" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="76" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="66" t="s">
         <v>116</v>
       </c>
@@ -2200,46 +2219,46 @@
         <v>121</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>122</v>
+        <v>232</v>
       </c>
       <c r="J12" s="66" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="66" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" s="66" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="66" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="68" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="C13" s="69" t="s">
         <v>124</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>125</v>
       </c>
       <c r="D13" s="69"/>
       <c r="F13" s="70" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G13" s="70"/>
       <c r="J13" s="66" t="s">
         <v>21</v>
       </c>
       <c r="L13" s="71" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="66" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="68" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N14" s="71" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
         <v>34</v>
       </c>
@@ -2256,7 +2275,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="66" t="s">
         <v>37</v>
       </c>
@@ -2276,7 +2295,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="66" t="s">
         <v>117</v>
       </c>
@@ -2296,7 +2315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="66" t="s">
         <v>118</v>
       </c>
@@ -2310,10 +2329,10 @@
         <v>21</v>
       </c>
       <c r="L18" s="71" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.3">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="66" t="s">
         <v>26</v>
       </c>
@@ -2321,21 +2340,21 @@
         <v>103</v>
       </c>
       <c r="N19" s="71" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" s="66" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="66" t="s">
         <v>17</v>
       </c>
       <c r="B20" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>132</v>
+      <c r="C20" s="66" t="s">
+        <v>233</v>
       </c>
       <c r="H20" s="66" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="J20" s="66" t="s">
         <v>21</v>
@@ -2344,18 +2363,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B21" s="62" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="C21" s="61" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="D21" s="61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J21" s="61" t="s">
         <v>21</v>
@@ -2364,91 +2383,91 @@
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="C22" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="F22" s="76" t="s">
-        <v>234</v>
+      <c r="B22" s="74" t="s">
+        <v>222</v>
+      </c>
+      <c r="C22" s="75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F22" s="75" t="s">
+        <v>224</v>
       </c>
       <c r="J22" s="61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="61" t="s">
         <v>69</v>
       </c>
       <c r="B23" s="62" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C23" s="61" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="E23" s="61">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B24" s="52" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C24" s="61" t="s">
-        <v>225</v>
-      </c>
-      <c r="E24" s="74" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" s="61" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+      <c r="E24" s="73" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" s="61" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="63" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" s="65" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="C25" s="65" t="s">
+      <c r="C26" s="65" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="61" t="s">
+      <c r="D26" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="C26" s="65" t="s">
-        <v>138</v>
-      </c>
-      <c r="D26" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B27" s="64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C27" s="63" t="s">
+        <v>138</v>
+      </c>
+      <c r="G27" s="63" t="s">
+        <v>139</v>
+      </c>
+      <c r="P27" s="63" t="s">
         <v>140</v>
-      </c>
-      <c r="C27" s="63" t="s">
-        <v>141</v>
-      </c>
-      <c r="G27" s="63" t="s">
-        <v>142</v>
-      </c>
-      <c r="P27" s="63" t="s">
-        <v>143</v>
       </c>
       <c r="Q27" s="63"/>
       <c r="R27" s="63"/>
@@ -2456,21 +2475,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B28" s="64" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C28" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G28" s="63" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="P28" s="63" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="Q28" s="63"/>
       <c r="R28" s="63"/>
@@ -2478,21 +2497,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B29" s="64" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C29" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G29" s="63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="P29" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q29" s="63"/>
       <c r="R29" s="63"/>
@@ -2500,21 +2519,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B30" s="64" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C30" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G30" s="63" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="P30" s="63" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="Q30" s="63"/>
       <c r="R30" s="63"/>
@@ -2522,21 +2541,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B31" s="64" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C31" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G31" s="63" t="s">
-        <v>154</v>
-      </c>
-      <c r="P31" s="63" t="s">
-        <v>149</v>
+        <v>151</v>
+      </c>
+      <c r="P31" s="78" t="s">
+        <v>242</v>
       </c>
       <c r="Q31" s="63"/>
       <c r="R31" s="63"/>
@@ -2544,21 +2563,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B32" s="64" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C32" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G32" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="P32" s="63" t="s">
-        <v>149</v>
+        <v>153</v>
+      </c>
+      <c r="P32" s="78" t="s">
+        <v>243</v>
       </c>
       <c r="Q32" s="63"/>
       <c r="R32" s="63"/>
@@ -2566,21 +2585,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B33" s="64" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C33" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G33" s="63" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="P33" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q33" s="63"/>
       <c r="R33" s="63"/>
@@ -2588,21 +2607,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="34" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B34" s="64" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C34" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G34" s="63" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="P34" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q34" s="63"/>
       <c r="R34" s="63"/>
@@ -2610,21 +2629,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B35" s="64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C35" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G35" s="63" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P35" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q35" s="63"/>
       <c r="R35" s="63"/>
@@ -2632,21 +2651,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B36" s="64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C36" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G36" s="63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P36" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q36" s="63"/>
       <c r="R36" s="63"/>
@@ -2654,21 +2673,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B37" s="64" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C37" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G37" s="63" t="s">
-        <v>166</v>
-      </c>
-      <c r="P37" s="63" t="s">
-        <v>149</v>
+        <v>163</v>
+      </c>
+      <c r="P37" s="78" t="s">
+        <v>244</v>
       </c>
       <c r="Q37" s="63"/>
       <c r="R37" s="63"/>
@@ -2676,21 +2695,21 @@
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="63" t="s">
         <v>116</v>
       </c>
       <c r="B38" s="64" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C38" s="63" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G38" s="63" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="P38" s="63" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="Q38" s="63"/>
       <c r="R38" s="63"/>
@@ -2698,7 +2717,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="39" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>27</v>
       </c>
@@ -2706,7 +2725,7 @@
         <v>28</v>
       </c>
       <c r="C39" s="61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="J39" s="61" t="s">
         <v>21</v>
@@ -2715,63 +2734,63 @@
         <v>28</v>
       </c>
       <c r="M39" s="66" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B40" s="52" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C40" s="61" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L40" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B41" s="62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C41" s="61" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="J41" s="61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B42" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C42" s="61" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="J42" s="61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="61" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B43" s="62" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C43" s="61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D43" s="61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J43" s="61" t="s">
         <v>21</v>
@@ -2780,24 +2799,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B44" s="62"/>
     </row>
-    <row r="45" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B45" s="62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C45" s="61" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D45" s="61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J45" s="61" t="s">
         <v>21</v>
@@ -2806,89 +2825,89 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B46" s="52" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C46" s="61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L46" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="47" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B47" s="62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C47" s="61" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G47" s="61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L47" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="61" t="s">
+        <v>185</v>
+      </c>
+      <c r="B48" s="62" t="s">
+        <v>186</v>
+      </c>
+      <c r="C48" s="61" t="s">
+        <v>187</v>
+      </c>
+      <c r="D48" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="61" t="s">
         <v>188</v>
-      </c>
-      <c r="B48" s="62" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D48" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="G48" s="61" t="s">
-        <v>191</v>
       </c>
       <c r="L48" s="61" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B49" s="62"/>
     </row>
-    <row r="50" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B50" s="52" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="L50" s="61" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="61" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B51" s="62" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C51" s="61" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D51" s="61" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="J51" s="61" t="s">
         <v>21</v>
@@ -2897,161 +2916,161 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B52" s="62" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" s="61" t="s">
-        <v>198</v>
+        <v>193</v>
+      </c>
+      <c r="C52" s="77" t="s">
+        <v>235</v>
       </c>
       <c r="H52" s="61" t="s">
-        <v>199</v>
-      </c>
-      <c r="I52" s="61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+      <c r="I52" s="77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B53" s="62" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C53" s="61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H53" s="61" t="s">
-        <v>203</v>
-      </c>
-      <c r="I53" s="61" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+      <c r="I53" s="77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B54" s="62" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C54" s="61" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="L54" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="61" t="s">
         <v>17</v>
       </c>
       <c r="B55" s="62" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C55" s="61" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="L55" s="61" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B56" s="62" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C56" s="61" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D56" s="61" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="57" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B57" s="62"/>
     </row>
-    <row r="58" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B58" s="62" t="s">
-        <v>210</v>
-      </c>
-      <c r="C58" s="61" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="C58" s="77" t="s">
+        <v>236</v>
       </c>
       <c r="J58" s="61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B59" s="62" t="s">
-        <v>212</v>
-      </c>
-      <c r="C59" s="61" t="s">
-        <v>213</v>
+        <v>205</v>
+      </c>
+      <c r="C59" s="77" t="s">
+        <v>237</v>
       </c>
       <c r="J59" s="61" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="61" t="s">
         <v>27</v>
       </c>
       <c r="B60" s="62" t="s">
-        <v>214</v>
-      </c>
-      <c r="C60" s="61" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <v>206</v>
+      </c>
+      <c r="C60" s="77" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B61" s="62" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="C61" s="61" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="H61" s="61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="61" t="s">
         <v>116</v>
       </c>
       <c r="B62" s="62" t="s">
-        <v>218</v>
-      </c>
-      <c r="C62" s="61" t="s">
-        <v>219</v>
+        <v>209</v>
+      </c>
+      <c r="C62" s="77" t="s">
+        <v>239</v>
       </c>
       <c r="H62" s="61" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="L62" s="61" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" s="61" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B63" s="62"/>
     </row>
@@ -3073,16 +3092,16 @@
       <selection pane="bottomRight" activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="29.3984375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="17.75" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.375" style="7" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="41.59765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.8984375" style="3"/>
+    <col min="4" max="4" width="41.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>15</v>
       </c>
@@ -3096,19 +3115,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="15"/>
       <c r="C2" s="14"/>
     </row>
-    <row r="3" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28"/>
       <c r="B3" s="36"/>
       <c r="C3" s="37"/>
       <c r="E3" s="39"/>
       <c r="F3" s="28"/>
     </row>
-    <row r="4" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
         <v>45</v>
       </c>
@@ -3121,7 +3140,7 @@
       <c r="E4" s="39"/>
       <c r="F4" s="28"/>
     </row>
-    <row r="5" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="40" t="s">
         <v>45</v>
       </c>
@@ -3134,7 +3153,7 @@
       <c r="E5" s="39"/>
       <c r="F5" s="28"/>
     </row>
-    <row r="6" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
         <v>45</v>
       </c>
@@ -3147,7 +3166,7 @@
       <c r="E6" s="39"/>
       <c r="F6" s="28"/>
     </row>
-    <row r="7" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="40" t="s">
         <v>45</v>
       </c>
@@ -3160,7 +3179,7 @@
       <c r="E7" s="39"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>45</v>
       </c>
@@ -3173,7 +3192,7 @@
       <c r="E8" s="39"/>
       <c r="F8" s="28"/>
     </row>
-    <row r="9" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>45</v>
       </c>
@@ -3186,7 +3205,7 @@
       <c r="E9" s="39"/>
       <c r="F9" s="28"/>
     </row>
-    <row r="10" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40" t="s">
         <v>45</v>
       </c>
@@ -3199,7 +3218,7 @@
       <c r="E10" s="39"/>
       <c r="F10" s="28"/>
     </row>
-    <row r="11" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>45</v>
       </c>
@@ -3212,7 +3231,7 @@
       <c r="E11" s="39"/>
       <c r="F11" s="28"/>
     </row>
-    <row r="12" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3225,7 +3244,7 @@
       <c r="E12" s="39"/>
       <c r="F12" s="28"/>
     </row>
-    <row r="13" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="40" t="s">
         <v>45</v>
       </c>
@@ -3238,11 +3257,11 @@
       <c r="E13" s="39"/>
       <c r="F13" s="28"/>
     </row>
-    <row r="14" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E14" s="39"/>
       <c r="F14" s="28"/>
     </row>
-    <row r="15" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="38" t="s">
         <v>68</v>
       </c>
@@ -3255,29 +3274,29 @@
       <c r="E15" s="39"/>
       <c r="F15" s="28"/>
     </row>
-    <row r="16" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="44"/>
       <c r="E16" s="39"/>
       <c r="F16" s="28"/>
     </row>
-    <row r="17" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="43"/>
       <c r="E17" s="39"/>
       <c r="F17" s="28"/>
     </row>
-    <row r="18" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="43"/>
       <c r="E18" s="39"/>
       <c r="F18" s="28"/>
     </row>
-    <row r="19" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="44"/>
       <c r="E19" s="39"/>
       <c r="F19" s="28"/>
     </row>
-    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="59" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="60" t="s">
         <v>104</v>
@@ -3286,23 +3305,23 @@
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E21" s="39"/>
       <c r="F21" s="28"/>
     </row>
-    <row r="22" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E22" s="39"/>
       <c r="F22" s="28"/>
     </row>
-    <row r="23" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E23" s="39"/>
       <c r="F23" s="28"/>
     </row>
-    <row r="24" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E24" s="39"/>
       <c r="F24" s="28"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="23"/>
       <c r="B25" s="24"/>
       <c r="C25" s="25"/>
@@ -3311,7 +3330,7 @@
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="26"/>
       <c r="C26" s="23"/>
@@ -3320,7 +3339,7 @@
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="23"/>
       <c r="B27" s="24"/>
       <c r="C27" s="25"/>
@@ -3329,7 +3348,7 @@
       <c r="F27" s="23"/>
       <c r="G27" s="23"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="23"/>
       <c r="B28" s="24"/>
       <c r="C28" s="25"/>
@@ -3338,7 +3357,7 @@
       <c r="F28" s="23"/>
       <c r="G28" s="23"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="23"/>
       <c r="B29" s="24"/>
       <c r="C29" s="25"/>
@@ -3347,7 +3366,7 @@
       <c r="F29" s="23"/>
       <c r="G29" s="23"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="24"/>
       <c r="C30" s="25"/>
@@ -3356,7 +3375,7 @@
       <c r="F30" s="23"/>
       <c r="G30" s="23"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="24"/>
       <c r="C31" s="25"/>
@@ -3365,7 +3384,7 @@
       <c r="F31" s="23"/>
       <c r="G31" s="23"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="23"/>
       <c r="B32" s="24"/>
       <c r="C32" s="25"/>
@@ -3374,7 +3393,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="23"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="24"/>
       <c r="C33" s="25"/>
@@ -3383,7 +3402,7 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -3392,7 +3411,7 @@
       <c r="F34" s="23"/>
       <c r="G34" s="23"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -3401,7 +3420,7 @@
       <c r="F35" s="23"/>
       <c r="G35" s="23"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="23"/>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -3410,7 +3429,7 @@
       <c r="F36" s="23"/>
       <c r="G36" s="23"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="23"/>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -3419,7 +3438,7 @@
       <c r="F37" s="23"/>
       <c r="G37" s="23"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="24"/>
       <c r="C38" s="25"/>
@@ -3428,7 +3447,7 @@
       <c r="F38" s="23"/>
       <c r="G38" s="23"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="24"/>
       <c r="C39" s="25"/>
@@ -3437,7 +3456,7 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="23"/>
       <c r="B40" s="24"/>
       <c r="C40" s="25"/>
@@ -3446,7 +3465,7 @@
       <c r="F40" s="23"/>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="26"/>
       <c r="C41" s="23"/>
@@ -3455,7 +3474,7 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="24"/>
       <c r="C42" s="25"/>
@@ -3464,7 +3483,7 @@
       <c r="F42" s="23"/>
       <c r="G42" s="23"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="23"/>
       <c r="B43" s="24"/>
       <c r="C43" s="25"/>
@@ -3473,7 +3492,7 @@
       <c r="F43" s="23"/>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="24"/>
       <c r="C44" s="25"/>
@@ -3482,7 +3501,7 @@
       <c r="F44" s="23"/>
       <c r="G44" s="23"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="24"/>
       <c r="C45" s="25"/>
@@ -3491,7 +3510,7 @@
       <c r="F45" s="23"/>
       <c r="G45" s="23"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
       <c r="B46" s="24"/>
       <c r="C46" s="25"/>
@@ -3500,7 +3519,7 @@
       <c r="F46" s="23"/>
       <c r="G46" s="23"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="24"/>
       <c r="C47" s="25"/>
@@ -3509,7 +3528,7 @@
       <c r="F47" s="23"/>
       <c r="G47" s="23"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="24"/>
       <c r="C48" s="25"/>
@@ -3518,7 +3537,7 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="23"/>
       <c r="B49" s="24"/>
       <c r="C49" s="25"/>
@@ -3527,7 +3546,7 @@
       <c r="F49" s="23"/>
       <c r="G49" s="23"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="24"/>
       <c r="C50" s="25"/>
@@ -3536,7 +3555,7 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="24"/>
       <c r="C51" s="25"/>
@@ -3545,7 +3564,7 @@
       <c r="F51" s="23"/>
       <c r="G51" s="23"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="24"/>
       <c r="C52" s="25"/>
@@ -3554,7 +3573,7 @@
       <c r="F52" s="23"/>
       <c r="G52" s="23"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="23"/>
       <c r="B53" s="24"/>
       <c r="C53" s="25"/>
@@ -3563,7 +3582,7 @@
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="24"/>
       <c r="C54" s="25"/>
@@ -3572,7 +3591,7 @@
       <c r="F54" s="23"/>
       <c r="G54" s="23"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="26"/>
       <c r="C55" s="23"/>
@@ -3581,7 +3600,7 @@
       <c r="F55" s="23"/>
       <c r="G55" s="23"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="23"/>
       <c r="B56" s="24"/>
       <c r="C56" s="25"/>
@@ -3590,7 +3609,7 @@
       <c r="F56" s="23"/>
       <c r="G56" s="23"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="24"/>
       <c r="C57" s="25"/>
@@ -3599,7 +3618,7 @@
       <c r="F57" s="23"/>
       <c r="G57" s="23"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="23"/>
       <c r="B58" s="24"/>
       <c r="C58" s="25"/>
@@ -3608,7 +3627,7 @@
       <c r="F58" s="23"/>
       <c r="G58" s="23"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="24"/>
       <c r="C59" s="25"/>
@@ -3617,7 +3636,7 @@
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="23"/>
       <c r="B60" s="24"/>
       <c r="C60" s="25"/>
@@ -3626,7 +3645,7 @@
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="24"/>
       <c r="C61" s="25"/>
@@ -3635,7 +3654,7 @@
       <c r="F61" s="23"/>
       <c r="G61" s="23"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="24"/>
       <c r="C62" s="25"/>
@@ -3644,7 +3663,7 @@
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="23"/>
       <c r="B63" s="24"/>
       <c r="C63" s="25"/>
@@ -3653,7 +3672,7 @@
       <c r="F63" s="23"/>
       <c r="G63" s="23"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="24"/>
       <c r="C64" s="25"/>
@@ -3662,7 +3681,7 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="26"/>
       <c r="C65" s="23"/>
@@ -3671,7 +3690,7 @@
       <c r="F65" s="23"/>
       <c r="G65" s="23"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="23"/>
       <c r="B66" s="24"/>
       <c r="C66" s="25"/>
@@ -3680,7 +3699,7 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
       <c r="B67" s="24"/>
       <c r="C67" s="25"/>
@@ -3689,7 +3708,7 @@
       <c r="F67" s="23"/>
       <c r="G67" s="23"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="24"/>
       <c r="C68" s="25"/>
@@ -3698,27 +3717,27 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
       <c r="B69" s="10"/>
       <c r="C69" s="4"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="18"/>
       <c r="B70" s="11"/>
       <c r="C70" s="27"/>
       <c r="D70" s="6"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="6"/>
       <c r="B71" s="12"/>
       <c r="C71" s="27"/>
       <c r="D71" s="6"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B72" s="13"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="19"/>
       <c r="B73" s="20"/>
       <c r="C73" s="21"/>
@@ -3727,7 +3746,7 @@
       <c r="F73" s="22"/>
       <c r="G73" s="22"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="19"/>
       <c r="B74" s="20"/>
       <c r="C74" s="21"/>
@@ -3736,7 +3755,7 @@
       <c r="F74" s="22"/>
       <c r="G74" s="22"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="19"/>
       <c r="B75" s="20"/>
       <c r="C75" s="21"/>
@@ -3745,7 +3764,7 @@
       <c r="F75" s="22"/>
       <c r="G75" s="22"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="19"/>
       <c r="B76" s="20"/>
       <c r="C76" s="21"/>
@@ -3754,7 +3773,7 @@
       <c r="F76" s="22"/>
       <c r="G76" s="22"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="19"/>
       <c r="B77" s="20"/>
       <c r="C77" s="21"/>
@@ -3763,7 +3782,7 @@
       <c r="F77" s="22"/>
       <c r="G77" s="22"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="19"/>
       <c r="B78" s="20"/>
       <c r="C78" s="21"/>
@@ -3772,7 +3791,7 @@
       <c r="F78" s="22"/>
       <c r="G78" s="22"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="19"/>
       <c r="B79" s="20"/>
       <c r="C79" s="21"/>
@@ -3781,7 +3800,7 @@
       <c r="F79" s="22"/>
       <c r="G79" s="22"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="19"/>
       <c r="B80" s="20"/>
       <c r="C80" s="21"/>
@@ -3790,7 +3809,7 @@
       <c r="F80" s="22"/>
       <c r="G80" s="22"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="19"/>
       <c r="B81" s="20"/>
       <c r="C81" s="21"/>
@@ -3799,7 +3818,7 @@
       <c r="F81" s="22"/>
       <c r="G81" s="22"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="19"/>
       <c r="B82" s="20"/>
       <c r="C82" s="21"/>
@@ -3823,16 +3842,16 @@
       <selection activeCell="B837" sqref="B837"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" style="30" customWidth="1"/>
-    <col min="2" max="2" width="26.09765625" style="30" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="30" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="9" style="30"/>
-    <col min="6" max="6" width="34.8984375" style="30" customWidth="1"/>
+    <col min="6" max="6" width="34.875" style="30" customWidth="1"/>
     <col min="7" max="16384" width="9" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>66</v>
       </c>
@@ -3855,1647 +3874,1647 @@
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A110" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A111" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A116" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A117" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A119" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A124" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A126" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A131" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A132" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A135" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A140" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A147" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A152" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A154" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A172" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A173" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A174" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A175" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A176" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A181" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A185" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A191" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A199" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A206" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A207" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A219" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A224" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A232" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A248" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A253" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A278" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A304" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A305" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A307" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A313" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A315" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="30" t="s">
         <v>73</v>
       </c>
@@ -5504,7 +5523,7 @@
       <c r="D332" s="31"/>
       <c r="E332" s="31"/>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="30" t="s">
         <v>73</v>
       </c>
@@ -5513,7 +5532,7 @@
       <c r="D333" s="31"/>
       <c r="E333" s="31"/>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="30" t="s">
         <v>73</v>
       </c>
@@ -5522,7 +5541,7 @@
       <c r="D334" s="31"/>
       <c r="E334" s="31"/>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="30" t="s">
         <v>73</v>
       </c>
@@ -5531,7 +5550,7 @@
       <c r="D335" s="31"/>
       <c r="E335" s="31"/>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="30" t="s">
         <v>73</v>
       </c>
@@ -5540,7 +5559,7 @@
       <c r="D336" s="31"/>
       <c r="E336" s="31"/>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="30" t="s">
         <v>73</v>
       </c>
@@ -5549,7 +5568,7 @@
       <c r="D337" s="31"/>
       <c r="E337" s="31"/>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="30" t="s">
         <v>73</v>
       </c>
@@ -5558,7 +5577,7 @@
       <c r="D338" s="31"/>
       <c r="E338" s="31"/>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="30" t="s">
         <v>73</v>
       </c>
@@ -5567,7 +5586,7 @@
       <c r="D339" s="31"/>
       <c r="E339" s="31"/>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="30" t="s">
         <v>73</v>
       </c>
@@ -5576,7 +5595,7 @@
       <c r="D340" s="31"/>
       <c r="E340" s="31"/>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="30" t="s">
         <v>73</v>
       </c>
@@ -5585,7 +5604,7 @@
       <c r="D341" s="31"/>
       <c r="E341" s="31"/>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="30" t="s">
         <v>73</v>
       </c>
@@ -5594,7 +5613,7 @@
       <c r="D342" s="31"/>
       <c r="E342" s="31"/>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="30" t="s">
         <v>73</v>
       </c>
@@ -5603,7 +5622,7 @@
       <c r="D343" s="31"/>
       <c r="E343" s="31"/>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="30" t="s">
         <v>73</v>
       </c>
@@ -5612,7 +5631,7 @@
       <c r="D344" s="31"/>
       <c r="E344" s="31"/>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="30" t="s">
         <v>73</v>
       </c>
@@ -5621,7 +5640,7 @@
       <c r="D345" s="31"/>
       <c r="E345" s="31"/>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="30" t="s">
         <v>73</v>
       </c>
@@ -5630,7 +5649,7 @@
       <c r="D346" s="31"/>
       <c r="E346" s="31"/>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="30" t="s">
         <v>73</v>
       </c>
@@ -5639,7 +5658,7 @@
       <c r="D347" s="31"/>
       <c r="E347" s="31"/>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="30" t="s">
         <v>73</v>
       </c>
@@ -5648,7 +5667,7 @@
       <c r="D348" s="31"/>
       <c r="E348" s="31"/>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="30" t="s">
         <v>73</v>
       </c>
@@ -5657,7 +5676,7 @@
       <c r="D349" s="31"/>
       <c r="E349" s="31"/>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="30" t="s">
         <v>73</v>
       </c>
@@ -5666,7 +5685,7 @@
       <c r="D350" s="31"/>
       <c r="E350" s="31"/>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="30" t="s">
         <v>73</v>
       </c>
@@ -5675,7 +5694,7 @@
       <c r="D351" s="31"/>
       <c r="E351" s="31"/>
     </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="30" t="s">
         <v>73</v>
       </c>
@@ -5684,7 +5703,7 @@
       <c r="D352" s="31"/>
       <c r="E352" s="31"/>
     </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="30" t="s">
         <v>73</v>
       </c>
@@ -5693,7 +5712,7 @@
       <c r="D353" s="31"/>
       <c r="E353" s="31"/>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="30" t="s">
         <v>73</v>
       </c>
@@ -5702,7 +5721,7 @@
       <c r="D354" s="31"/>
       <c r="E354" s="31"/>
     </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="30" t="s">
         <v>73</v>
       </c>
@@ -5711,7 +5730,7 @@
       <c r="D355" s="31"/>
       <c r="E355" s="31"/>
     </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="30" t="s">
         <v>73</v>
       </c>
@@ -5720,7 +5739,7 @@
       <c r="D356" s="31"/>
       <c r="E356" s="31"/>
     </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="30" t="s">
         <v>73</v>
       </c>
@@ -5729,7 +5748,7 @@
       <c r="D357" s="31"/>
       <c r="E357" s="31"/>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="30" t="s">
         <v>73</v>
       </c>
@@ -5738,7 +5757,7 @@
       <c r="D358" s="31"/>
       <c r="E358" s="31"/>
     </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="30" t="s">
         <v>73</v>
       </c>
@@ -5747,7 +5766,7 @@
       <c r="D359" s="31"/>
       <c r="E359" s="31"/>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="30" t="s">
         <v>73</v>
       </c>
@@ -5756,7 +5775,7 @@
       <c r="D360" s="31"/>
       <c r="E360" s="31"/>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="30" t="s">
         <v>73</v>
       </c>
@@ -5765,7 +5784,7 @@
       <c r="D361" s="31"/>
       <c r="E361" s="31"/>
     </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="30" t="s">
         <v>73</v>
       </c>
@@ -5774,7 +5793,7 @@
       <c r="D362" s="31"/>
       <c r="E362" s="31"/>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="30" t="s">
         <v>73</v>
       </c>
@@ -5783,7 +5802,7 @@
       <c r="D363" s="31"/>
       <c r="E363" s="31"/>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="30" t="s">
         <v>73</v>
       </c>
@@ -5792,7 +5811,7 @@
       <c r="D364" s="31"/>
       <c r="E364" s="31"/>
     </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="30" t="s">
         <v>73</v>
       </c>
@@ -5801,7 +5820,7 @@
       <c r="D365" s="31"/>
       <c r="E365" s="31"/>
     </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="30" t="s">
         <v>73</v>
       </c>
@@ -5810,7 +5829,7 @@
       <c r="D366" s="31"/>
       <c r="E366" s="31"/>
     </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" s="30" t="s">
         <v>73</v>
       </c>
@@ -5819,7 +5838,7 @@
       <c r="D367" s="31"/>
       <c r="E367" s="31"/>
     </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" s="30" t="s">
         <v>73</v>
       </c>
@@ -5828,7 +5847,7 @@
       <c r="D368" s="31"/>
       <c r="E368" s="31"/>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A369" s="30" t="s">
         <v>73</v>
       </c>
@@ -5837,7 +5856,7 @@
       <c r="D369" s="31"/>
       <c r="E369" s="31"/>
     </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" s="30" t="s">
         <v>73</v>
       </c>
@@ -5846,7 +5865,7 @@
       <c r="D370" s="31"/>
       <c r="E370" s="31"/>
     </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A371" s="30" t="s">
         <v>73</v>
       </c>
@@ -5855,7 +5874,7 @@
       <c r="D371" s="31"/>
       <c r="E371" s="31"/>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A372" s="30" t="s">
         <v>73</v>
       </c>
@@ -5864,7 +5883,7 @@
       <c r="D372" s="31"/>
       <c r="E372" s="31"/>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A373" s="30" t="s">
         <v>73</v>
       </c>
@@ -5873,7 +5892,7 @@
       <c r="D373" s="31"/>
       <c r="E373" s="31"/>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" s="30" t="s">
         <v>73</v>
       </c>
@@ -5882,7 +5901,7 @@
       <c r="D374" s="31"/>
       <c r="E374" s="31"/>
     </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A375" s="30" t="s">
         <v>73</v>
       </c>
@@ -5891,7 +5910,7 @@
       <c r="D375" s="31"/>
       <c r="E375" s="31"/>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A376" s="30" t="s">
         <v>73</v>
       </c>
@@ -5900,7 +5919,7 @@
       <c r="D376" s="31"/>
       <c r="E376" s="31"/>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A377" s="30" t="s">
         <v>73</v>
       </c>
@@ -5909,2411 +5928,2411 @@
       <c r="D377" s="31"/>
       <c r="E377" s="31"/>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A379" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A382" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A383" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A384" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A385" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A386" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A387" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A388" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A389" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A390" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A391" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A392" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A393" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A394" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A395" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A396" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A397" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A398" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A399" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A400" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A402" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A404" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A411" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A417" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A418" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A419" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A420" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A421" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A422" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A423" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A424" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A425" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A426" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A427" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A428" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A429" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A430" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A431" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A432" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A433" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A434" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A435" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A436" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A437" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A438" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A439" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A440" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A441" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A442" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A443" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A444" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A445" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A446" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A447" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A448" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A449" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A450" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A451" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A452" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A453" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A454" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A455" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A456" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A457" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A458" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A459" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A460" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A461" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A462" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A463" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A464" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A465" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A466" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A467" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A468" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A469" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A470" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A471" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A472" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A473" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A474" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A475" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A476" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A477" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A478" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A479" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A480" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A481" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A482" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A483" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A484" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A485" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A486" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A487" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A488" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A489" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A490" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A491" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A492" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A493" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A494" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A495" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A496" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A497" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A498" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A499" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A500" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A501" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A502" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A503" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A504" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A505" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A506" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A507" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A508" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A509" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="510" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A510" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="511" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A511" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="512" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A512" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="513" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A513" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="514" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A514" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="515" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A515" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="516" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A516" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="517" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A517" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="518" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A518" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="519" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A519" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="520" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A520" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="521" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A521" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="522" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A522" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="523" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A523" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="524" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A524" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="525" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A525" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="526" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A526" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="527" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A527" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="528" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A528" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="529" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A529" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="530" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A530" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="531" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A531" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="532" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A532" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="533" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A533" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="534" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A534" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="535" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A535" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="536" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A536" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="537" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A537" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="538" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A538" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="539" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A539" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="540" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A540" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="541" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A541" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="542" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A542" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="543" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A543" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="544" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A544" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="545" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A545" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="546" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A546" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="547" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A547" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="548" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A548" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="549" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A549" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="550" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A550" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="551" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A551" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="552" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A552" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="553" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A553" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A554" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A555" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="556" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A556" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="557" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A557" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="558" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A558" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="559" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A559" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="560" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A560" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="561" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A561" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="562" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A562" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="563" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A563" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="564" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A564" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="565" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A565" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="566" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A566" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="567" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A567" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="568" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A568" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="569" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A569" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="570" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A570" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="571" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A571" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="572" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A572" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="573" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A573" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="574" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A574" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="575" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A575" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A576" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A577" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A578" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A579" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A580" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A581" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A582" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A584" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B584" s="32"/>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A585" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B585" s="32"/>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A586" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B586" s="32"/>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A587" s="30" t="s">
         <v>74</v>
       </c>
       <c r="B587" s="32"/>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B588" s="32"/>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A589" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B589" s="32"/>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A590" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B590" s="32"/>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A591" s="30" t="s">
         <v>75</v>
       </c>
       <c r="B591" s="32"/>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B592" s="32"/>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A593" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B593" s="32"/>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A594" s="30" t="s">
         <v>20</v>
       </c>
       <c r="B594" s="32"/>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B595" s="32"/>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A596" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B596" s="32"/>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A597" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B597" s="32"/>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A598" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B598" s="32"/>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A599" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B599" s="32"/>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A600" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B600" s="32"/>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A601" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B601" s="32"/>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A602" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B602" s="32"/>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A603" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B603" s="32"/>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A604" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B604" s="32"/>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A605" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B605" s="32"/>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A606" s="30" t="s">
         <v>76</v>
       </c>
       <c r="B606" s="32"/>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B607" s="32"/>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A608" s="30" t="s">
         <v>77</v>
       </c>
       <c r="B608" s="32"/>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A609" s="30" t="s">
         <v>77</v>
       </c>
       <c r="B609" s="32"/>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B610" s="32"/>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A611" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B611" s="32"/>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A612" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B612" s="32"/>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A613" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B613" s="32"/>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A614" s="30" t="s">
         <v>78</v>
       </c>
       <c r="B614" s="32"/>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B615" s="32"/>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A616" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B616" s="32"/>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A617" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B617" s="32"/>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A618" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B618" s="32"/>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A619" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B619" s="32"/>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A620" s="30" t="s">
         <v>79</v>
       </c>
       <c r="B620" s="32"/>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B621" s="32"/>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A622" s="30" t="s">
         <v>80</v>
       </c>
       <c r="B622" s="32"/>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A623" s="30" t="s">
         <v>80</v>
       </c>
       <c r="B623" s="32"/>
     </row>
-    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A626" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B626" s="32"/>
       <c r="C626" s="33"/>
     </row>
-    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A627" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B627" s="32"/>
       <c r="C627" s="33"/>
     </row>
-    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A628" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B628" s="32"/>
       <c r="C628" s="33"/>
     </row>
-    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A629" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B629" s="32"/>
       <c r="C629" s="33"/>
     </row>
-    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A630" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B630" s="32"/>
       <c r="C630" s="33"/>
     </row>
-    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A631" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B631" s="32"/>
       <c r="C631" s="33"/>
     </row>
-    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A632" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B632" s="32"/>
       <c r="C632" s="33"/>
     </row>
-    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A633" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B633" s="32"/>
       <c r="C633" s="33"/>
     </row>
-    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A634" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B634" s="32"/>
       <c r="C634" s="33"/>
     </row>
-    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A635" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B635" s="32"/>
       <c r="C635" s="33"/>
     </row>
-    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A636" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B636" s="32"/>
       <c r="C636" s="33"/>
     </row>
-    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A637" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B637" s="32"/>
       <c r="C637" s="33"/>
     </row>
-    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A638" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B638" s="32"/>
       <c r="C638" s="33"/>
     </row>
-    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A639" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B639" s="32"/>
       <c r="C639" s="33"/>
     </row>
-    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A640" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B640" s="32"/>
       <c r="C640" s="33"/>
     </row>
-    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A641" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B641" s="32"/>
       <c r="C641" s="33"/>
     </row>
-    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A642" s="33" t="s">
         <v>81</v>
       </c>
       <c r="B642" s="32"/>
       <c r="C642" s="33"/>
     </row>
-    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A643" s="33"/>
       <c r="B643" s="34"/>
       <c r="C643" s="33"/>
     </row>
-    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A644" s="33" t="s">
         <v>82</v>
       </c>
       <c r="B644" s="34"/>
       <c r="C644" s="33"/>
     </row>
-    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A645" s="33" t="s">
         <v>82</v>
       </c>
       <c r="B645" s="34"/>
       <c r="C645" s="33"/>
     </row>
-    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A647" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B647" s="32"/>
       <c r="C647" s="33"/>
     </row>
-    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A648" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B648" s="32"/>
       <c r="C648" s="33"/>
     </row>
-    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A649" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B649" s="32"/>
       <c r="C649" s="33"/>
     </row>
-    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A650" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B650" s="32"/>
       <c r="C650" s="33"/>
     </row>
-    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A651" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B651" s="32"/>
       <c r="C651" s="33"/>
     </row>
-    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A652" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B652" s="32"/>
       <c r="C652" s="33"/>
     </row>
-    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A653" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B653" s="32"/>
       <c r="C653" s="33"/>
     </row>
-    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A654" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B654" s="32"/>
       <c r="C654" s="33"/>
     </row>
-    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A655" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B655" s="32"/>
       <c r="C655" s="33"/>
     </row>
-    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A656" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B656" s="32"/>
       <c r="C656" s="33"/>
     </row>
-    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A657" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B657" s="32"/>
       <c r="C657" s="33"/>
     </row>
-    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A658" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B658" s="32"/>
       <c r="C658" s="33"/>
     </row>
-    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A659" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B659" s="32"/>
       <c r="C659" s="33"/>
     </row>
-    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A660" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B660" s="32"/>
       <c r="C660" s="33"/>
     </row>
-    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A661" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B661" s="32"/>
       <c r="C661" s="33"/>
     </row>
-    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A662" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B662" s="32"/>
       <c r="C662" s="33"/>
     </row>
-    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A663" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B663" s="32"/>
       <c r="C663" s="33"/>
     </row>
-    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A664" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B664" s="32"/>
       <c r="C664" s="33"/>
     </row>
-    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A665" s="33" t="s">
         <v>83</v>
       </c>
       <c r="B665" s="32"/>
       <c r="C665" s="33"/>
     </row>
-    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A668" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B668" s="32"/>
       <c r="C668" s="33"/>
     </row>
-    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A669" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B669" s="32"/>
       <c r="C669" s="33"/>
     </row>
-    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A670" s="33" t="s">
         <v>84</v>
       </c>
       <c r="B670" s="32"/>
       <c r="C670" s="33"/>
     </row>
-    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A671" s="33"/>
       <c r="B671" s="32"/>
       <c r="C671" s="33"/>
     </row>
-    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A672" s="33"/>
       <c r="B672" s="32"/>
       <c r="C672" s="33"/>
     </row>
-    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A673" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B673" s="32"/>
       <c r="C673" s="33"/>
     </row>
-    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A674" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B674" s="32"/>
       <c r="C674" s="33"/>
     </row>
-    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A675" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B675" s="32"/>
       <c r="C675" s="33"/>
     </row>
-    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A676" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B676" s="32"/>
       <c r="C676" s="33"/>
     </row>
-    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A677" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B677" s="32"/>
       <c r="C677" s="33"/>
     </row>
-    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A678" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B678" s="32"/>
       <c r="C678" s="33"/>
     </row>
-    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A679" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B679" s="32"/>
       <c r="C679" s="33"/>
     </row>
-    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A680" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B680" s="32"/>
       <c r="C680" s="33"/>
     </row>
-    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A681" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B681" s="32"/>
       <c r="C681" s="33"/>
     </row>
-    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A682" s="33" t="s">
         <v>85</v>
       </c>
       <c r="B682" s="32"/>
       <c r="C682" s="33"/>
     </row>
-    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A684" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B684" s="32"/>
       <c r="C684" s="33"/>
     </row>
-    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A685" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B685" s="32"/>
       <c r="C685" s="33"/>
     </row>
-    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A686" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B686" s="32"/>
       <c r="C686" s="33"/>
     </row>
-    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A687" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B687" s="32"/>
       <c r="C687" s="33"/>
     </row>
-    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A688" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B688" s="32"/>
       <c r="C688" s="33"/>
     </row>
-    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A689" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B689" s="32"/>
       <c r="C689" s="33"/>
     </row>
-    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A690" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B690" s="32"/>
       <c r="C690" s="33"/>
     </row>
-    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A691" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B691" s="32"/>
       <c r="C691" s="33"/>
     </row>
-    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A692" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B692" s="32"/>
       <c r="C692" s="33"/>
     </row>
-    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A693" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B693" s="32"/>
       <c r="C693" s="33"/>
     </row>
-    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A694" s="33" t="s">
         <v>86</v>
       </c>
       <c r="B694" s="32"/>
       <c r="C694" s="33"/>
     </row>
-    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A696" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B696" s="32"/>
       <c r="C696" s="33"/>
     </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A697" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B697" s="32"/>
       <c r="C697" s="33"/>
     </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A698" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B698" s="32"/>
       <c r="C698" s="33"/>
     </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A699" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B699" s="32"/>
       <c r="C699" s="33"/>
     </row>
-    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A700" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B700" s="32"/>
       <c r="C700" s="33"/>
     </row>
-    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A701" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B701" s="32"/>
       <c r="C701" s="33"/>
     </row>
-    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A702" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B702" s="32"/>
       <c r="C702" s="33"/>
     </row>
-    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A703" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B703" s="32"/>
       <c r="C703" s="33"/>
     </row>
-    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A704" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B704" s="32"/>
       <c r="C704" s="33"/>
     </row>
-    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A705" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B705" s="32"/>
       <c r="C705" s="33"/>
     </row>
-    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A706" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B706" s="32"/>
       <c r="C706" s="33"/>
     </row>
-    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A707" s="33" t="s">
         <v>87</v>
       </c>
       <c r="B707" s="32"/>
       <c r="C707" s="33"/>
     </row>
-    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A709" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B709" s="32"/>
       <c r="C709" s="33"/>
     </row>
-    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A710" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B710" s="32"/>
       <c r="C710" s="33"/>
     </row>
-    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A711" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B711" s="32"/>
       <c r="C711" s="33"/>
     </row>
-    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A712" s="33" t="s">
         <v>88</v>
       </c>
       <c r="B712" s="32"/>
       <c r="C712" s="33"/>
     </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A714" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B714" s="32"/>
       <c r="C714" s="33"/>
     </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A715" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B715" s="32"/>
       <c r="C715" s="33"/>
     </row>
-    <row r="716" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A716" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B716" s="32"/>
       <c r="C716" s="33"/>
     </row>
-    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A717" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B717" s="32"/>
       <c r="C717" s="33"/>
     </row>
-    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A718" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B718" s="32"/>
       <c r="C718" s="33"/>
     </row>
-    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A719" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B719" s="32"/>
       <c r="C719" s="33"/>
     </row>
-    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A720" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B720" s="32"/>
       <c r="C720" s="33"/>
     </row>
-    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A721" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B721" s="32"/>
       <c r="C721" s="33"/>
     </row>
-    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A722" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B722" s="32"/>
       <c r="C722" s="33"/>
     </row>
-    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A723" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B723" s="32"/>
       <c r="C723" s="33"/>
     </row>
-    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A724" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B724" s="32"/>
       <c r="C724" s="33"/>
     </row>
-    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A725" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B725" s="32"/>
       <c r="C725" s="33"/>
     </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A726" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B726" s="32"/>
       <c r="C726" s="33"/>
     </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A727" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B727" s="32"/>
       <c r="C727" s="33"/>
     </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A728" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B728" s="32"/>
       <c r="C728" s="33"/>
     </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A729" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B729" s="32"/>
       <c r="C729" s="33"/>
     </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A730" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B730" s="32"/>
       <c r="C730" s="33"/>
     </row>
-    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A731" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B731" s="32"/>
       <c r="C731" s="33"/>
     </row>
-    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A732" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B732" s="32"/>
       <c r="C732" s="33"/>
     </row>
-    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A733" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B733" s="32"/>
       <c r="C733" s="33"/>
     </row>
-    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A734" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B734" s="32"/>
       <c r="C734" s="33"/>
     </row>
-    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A735" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B735" s="32"/>
       <c r="C735" s="33"/>
     </row>
-    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A736" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B736" s="32"/>
       <c r="C736" s="33"/>
     </row>
-    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A737" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B737" s="32"/>
       <c r="C737" s="33"/>
     </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A738" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B738" s="32"/>
       <c r="C738" s="33"/>
     </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A739" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B739" s="32"/>
       <c r="C739" s="33"/>
     </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A740" s="33" t="s">
         <v>89</v>
       </c>
       <c r="B740" s="32"/>
       <c r="C740" s="33"/>
     </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A742" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B742" s="32"/>
       <c r="C742" s="33"/>
     </row>
-    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A743" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B743" s="32"/>
       <c r="C743" s="33"/>
     </row>
-    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A744" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B744" s="32"/>
       <c r="C744" s="33"/>
     </row>
-    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A745" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B745" s="32"/>
       <c r="C745" s="33"/>
     </row>
-    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A746" s="33" t="s">
         <v>90</v>
       </c>
       <c r="B746" s="32"/>
       <c r="C746" s="33"/>
     </row>
-    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A747" s="33"/>
       <c r="B747" s="32"/>
       <c r="C747" s="33"/>
     </row>
-    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A748" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B748" s="32"/>
       <c r="C748" s="33"/>
     </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A749" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B749" s="32"/>
       <c r="C749" s="33"/>
     </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A750" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B750" s="32"/>
       <c r="C750" s="33"/>
     </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A751" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B751" s="32"/>
       <c r="C751" s="33"/>
     </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A752" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B752" s="32"/>
       <c r="C752" s="33"/>
     </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A753" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B753" s="32"/>
       <c r="C753" s="33"/>
     </row>
-    <row r="754" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A754" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B754" s="32"/>
       <c r="C754" s="33"/>
     </row>
-    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A755" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B755" s="32"/>
       <c r="C755" s="33"/>
     </row>
-    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A756" s="33" t="s">
         <v>91</v>
       </c>
       <c r="B756" s="32"/>
       <c r="C756" s="33"/>
     </row>
-    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A757" s="33"/>
       <c r="B757" s="32"/>
       <c r="C757" s="33"/>
     </row>
-    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A758" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B758" s="32"/>
       <c r="C758" s="33"/>
     </row>
-    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A759" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B759" s="32"/>
       <c r="C759" s="33"/>
     </row>
-    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A760" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B760" s="32"/>
       <c r="C760" s="33"/>
     </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A761" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B761" s="32"/>
       <c r="C761" s="33"/>
     </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A762" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B762" s="32"/>
       <c r="C762" s="33"/>
     </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A763" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B763" s="32"/>
       <c r="C763" s="33"/>
     </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A764" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B764" s="32"/>
       <c r="C764" s="33"/>
     </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A765" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B765" s="32"/>
       <c r="C765" s="33"/>
     </row>
-    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A766" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B766" s="32"/>
       <c r="C766" s="33"/>
     </row>
-    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A767" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B767" s="32"/>
       <c r="C767" s="33"/>
     </row>
-    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A768" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B768" s="32"/>
       <c r="C768" s="33"/>
     </row>
-    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A769" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B769" s="32"/>
       <c r="C769" s="33"/>
     </row>
-    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A770" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B770" s="32"/>
       <c r="C770" s="33"/>
     </row>
-    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A771" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B771" s="32"/>
       <c r="C771" s="33"/>
     </row>
-    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A772" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B772" s="32"/>
       <c r="C772" s="33"/>
     </row>
-    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A773" s="33" t="s">
         <v>92</v>
       </c>
       <c r="B773" s="32"/>
       <c r="C773" s="33"/>
     </row>
-    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A774" s="33"/>
       <c r="B774" s="32"/>
       <c r="C774" s="33"/>
     </row>
-    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A775" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B775" s="32"/>
       <c r="C775" s="33"/>
     </row>
-    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A776" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B776" s="32"/>
       <c r="C776" s="33"/>
     </row>
-    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A777" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B777" s="32"/>
       <c r="C777" s="33"/>
     </row>
-    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A778" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B778" s="32"/>
       <c r="C778" s="33"/>
     </row>
-    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A779" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B779" s="32"/>
       <c r="C779" s="33"/>
     </row>
-    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A780" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B780" s="32"/>
       <c r="C780" s="33"/>
     </row>
-    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A781" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B781" s="32"/>
       <c r="C781" s="33"/>
     </row>
-    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A782" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B782" s="32"/>
       <c r="C782" s="33"/>
     </row>
-    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A783" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B783" s="32"/>
       <c r="C783" s="33"/>
     </row>
-    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A784" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B784" s="32"/>
       <c r="C784" s="33"/>
     </row>
-    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A785" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B785" s="32"/>
       <c r="C785" s="33"/>
     </row>
-    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A786" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B786" s="32"/>
       <c r="C786" s="33"/>
     </row>
-    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A787" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B787" s="32"/>
       <c r="C787" s="33"/>
     </row>
-    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A788" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B788" s="32"/>
       <c r="C788" s="33"/>
     </row>
-    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A789" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B789" s="32"/>
       <c r="C789" s="33"/>
     </row>
-    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A790" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B790" s="32"/>
       <c r="C790" s="33"/>
     </row>
-    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A791" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B791" s="32"/>
       <c r="C791" s="33"/>
     </row>
-    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A792" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B792" s="32"/>
       <c r="C792" s="33"/>
     </row>
-    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A793" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B793" s="32"/>
       <c r="C793" s="33"/>
     </row>
-    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A794" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B794" s="32"/>
       <c r="C794" s="33"/>
     </row>
-    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A795" s="33" t="s">
         <v>93</v>
       </c>
       <c r="B795" s="32"/>
       <c r="C795" s="33"/>
     </row>
-    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A796" s="33"/>
       <c r="B796" s="32"/>
       <c r="C796" s="33"/>
     </row>
-    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A797" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B797" s="32"/>
       <c r="C797" s="33"/>
     </row>
-    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A798" s="33" t="s">
         <v>94</v>
       </c>
       <c r="B798" s="32"/>
       <c r="C798" s="33"/>
     </row>
-    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A799" s="33"/>
       <c r="B799" s="32"/>
       <c r="C799" s="33"/>
     </row>
-    <row r="800" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A800" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B800" s="32"/>
       <c r="C800" s="33"/>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A801" s="33" t="s">
         <v>95</v>
       </c>
       <c r="B801" s="32"/>
       <c r="C801" s="33"/>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A803" s="33" t="s">
         <v>96</v>
       </c>
@@ -8323,7 +8342,7 @@
       <c r="L803" s="32"/>
       <c r="M803" s="33"/>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A804" s="33" t="s">
         <v>96</v>
       </c>
@@ -8333,7 +8352,7 @@
       <c r="L804" s="32"/>
       <c r="M804" s="33"/>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A805" s="33" t="s">
         <v>96</v>
       </c>
@@ -8343,7 +8362,7 @@
       <c r="L805" s="32"/>
       <c r="M805" s="33"/>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A806" s="33" t="s">
         <v>96</v>
       </c>
@@ -8353,7 +8372,7 @@
       <c r="L806" s="32"/>
       <c r="M806" s="33"/>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A807" s="33" t="s">
         <v>96</v>
       </c>
@@ -8363,7 +8382,7 @@
       <c r="L807" s="32"/>
       <c r="M807" s="33"/>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A808" s="33" t="s">
         <v>96</v>
       </c>
@@ -8373,7 +8392,7 @@
       <c r="L808" s="32"/>
       <c r="M808" s="33"/>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A809" s="33" t="s">
         <v>96</v>
       </c>
@@ -8383,7 +8402,7 @@
       <c r="L809" s="32"/>
       <c r="M809" s="33"/>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A810" s="33" t="s">
         <v>96</v>
       </c>
@@ -8393,7 +8412,7 @@
       <c r="L810" s="32"/>
       <c r="M810" s="33"/>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A811" s="33" t="s">
         <v>96</v>
       </c>
@@ -8403,7 +8422,7 @@
       <c r="L811" s="32"/>
       <c r="M811" s="33"/>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A812" s="33" t="s">
         <v>96</v>
       </c>
@@ -8413,196 +8432,196 @@
       <c r="L812" s="32"/>
       <c r="M812" s="33"/>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A814" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B814" s="32"/>
       <c r="C814" s="33"/>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A815" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B815" s="32"/>
       <c r="C815" s="33"/>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A816" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B816" s="32"/>
       <c r="C816" s="33"/>
     </row>
-    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A817" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B817" s="32"/>
       <c r="C817" s="33"/>
     </row>
-    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A818" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B818" s="32"/>
       <c r="C818" s="33"/>
     </row>
-    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A819" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B819" s="32"/>
       <c r="C819" s="33"/>
     </row>
-    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A820" s="30" t="s">
         <v>97</v>
       </c>
       <c r="B820" s="32"/>
       <c r="C820" s="33"/>
     </row>
-    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A822" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B822" s="32"/>
       <c r="C822" s="33"/>
     </row>
-    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A823" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B823" s="32"/>
       <c r="C823" s="33"/>
     </row>
-    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A824" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B824" s="32"/>
       <c r="C824" s="33"/>
     </row>
-    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A825" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B825" s="32"/>
       <c r="C825" s="33"/>
     </row>
-    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A826" s="33" t="s">
         <v>98</v>
       </c>
       <c r="B826" s="32"/>
       <c r="C826" s="33"/>
     </row>
-    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A828" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B828" s="32"/>
       <c r="C828" s="35"/>
     </row>
-    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A829" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B829" s="32"/>
       <c r="C829" s="33"/>
     </row>
-    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A830" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B830" s="32"/>
       <c r="C830" s="33"/>
     </row>
-    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A831" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B831" s="32"/>
       <c r="C831" s="33"/>
     </row>
-    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A832" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B832" s="32"/>
       <c r="C832" s="33"/>
     </row>
-    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A833" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B833" s="32"/>
       <c r="C833" s="33"/>
     </row>
-    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A834" s="30" t="s">
         <v>99</v>
       </c>
       <c r="B834" s="32"/>
       <c r="C834" s="33"/>
     </row>
-    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A835" s="33" t="s">
         <v>99</v>
       </c>
       <c r="B835" s="32"/>
       <c r="C835" s="33"/>
     </row>
-    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A837" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B837" s="32"/>
       <c r="C837" s="35"/>
     </row>
-    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A838" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B838" s="32"/>
       <c r="C838" s="33"/>
     </row>
-    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A839" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B839" s="32"/>
       <c r="C839" s="33"/>
     </row>
-    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A840" s="30" t="s">
         <v>100</v>
       </c>
       <c r="B840" s="32"/>
       <c r="C840" s="33"/>
     </row>
-    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A842" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B842" s="32"/>
       <c r="C842" s="33"/>
     </row>
-    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A843" s="33" t="s">
         <v>101</v>
       </c>
       <c r="B843" s="32"/>
       <c r="C843" s="33"/>
     </row>
-    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A845" s="73" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A846" s="73" t="s">
-        <v>230</v>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A845" s="72" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A846" s="72" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -8617,20 +8636,20 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.8984375" style="17" customWidth="1"/>
-    <col min="2" max="2" width="25.3984375" style="17" customWidth="1"/>
-    <col min="3" max="3" width="15.8984375" style="17" customWidth="1"/>
-    <col min="4" max="4" width="57.3984375" style="17" customWidth="1"/>
+    <col min="1" max="1" width="36.875" style="17" customWidth="1"/>
+    <col min="2" max="2" width="25.375" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="17" customWidth="1"/>
+    <col min="4" max="4" width="57.375" style="17" customWidth="1"/>
     <col min="5" max="5" width="32.5" style="17" customWidth="1"/>
     <col min="6" max="16384" width="11" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
@@ -8647,29 +8666,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="56" t="s">
+        <v>127</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="54">
+        <v>2023316</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="61" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="54">
-        <v>2022013101</v>
-      </c>
-      <c r="D2" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="E2" s="61" t="s">
-        <v>130</v>
-      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://cavateco.terrafirma.co.mz:8080/sandbox/submission" xr:uid="{7AC84597-B042-473D-9696-E842F5B912BE}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
